--- a/Data/graphs.xlsx
+++ b/Data/graphs.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\SoapBoxTest\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DF2388DB-D394-4B9F-B38D-2F0748940638}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245BEDA7-73C4-4B6F-A897-8DC8E4567C39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_points" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -576,6 +576,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Original Data Vs Filtered Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -614,7 +669,697 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[2]data_points!$A:$A</c:f>
+              <c:f>[1]data_points!$B:$B</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>-0.16011779910000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.16040688240000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.16062694280000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.16053670340000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.16045812170000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.1606820971</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.160790974</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.16075816570000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.16074381870000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.16115347620000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.1618168015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.16254633569999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.16298497179999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.16303419599999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.1632178296</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.1633707808</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.16299822359999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.1627860142</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.16268601099999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.16277497490000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.1631475242</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.163561765</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.16374090220000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.16374607150000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.16374607129999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.16374607129999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.16374607129999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.16374607129999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.16374607129999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.16374607129999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.16374607129999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.16374607129999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.16374607129999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.16374607129999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.16374607129999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.16374607129999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.16374607129999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.16374607129999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.16374607129999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.16374607129999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.16374607129999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.16374607129999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.16374607129999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.16374607129999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.16374607129999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.16374607129999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.16374607129999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.16374607129999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.16374607129999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.16374018360000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.16350567290000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.16315570239999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.162940841</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.16293423639999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.16259841150000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.16186532149999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.16094624169999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.1593338762</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.1591598209</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.1591598209</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.1591598209</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.1587803518</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.1581672952</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.15760849809999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.1573533235</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.1567785622</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.1560206499</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.1554224532</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.15467130940000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.15434417459999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.15430388759999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.15421545689999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.15395552009999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.15379850610000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.17560958860000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.15455034670000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.15482374469999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.1547229289</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.15411358720000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.15355052559999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.15298529929999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.152298355</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.15182118759999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.15140472739999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.15102502379999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.15084293069999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.15064067649999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.15049859199999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.15045036079999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.15043493799999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.1503960268</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.1503960268</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.17449378970000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.15035591640000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.15030449779999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.15008530540000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.1498789432</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.14999280400000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.1506926458</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.1513014885</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.15155444339999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.15156534739999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.15156670059999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.15156577299999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.15156577299999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.1518291547</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.1521038794</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.1522178189</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.15223618229999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.15224832620000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.15235266450000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.1520493295</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.15157193369999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.15110461989999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-0.15123364380000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-0.15159125979999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.15212866280000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.15205350100000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-0.15190461650000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.1520323271</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.15269343769999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-0.15344857370000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-0.15416305250000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-0.15471346659999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-0.15526277220000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.1554880484</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.15561689649999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-0.15588486069999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.1562271777</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-0.1565372817</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.15684457939999999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-0.1570609707</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.1571154642</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-0.15723469840000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.17294883729999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-0.1575284699</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-0.1575436076</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-0.15754496500000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.15591599079999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.15488621159999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-0.1549884144</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-0.15573168530000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-0.1560767018</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-0.156079042</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-0.1560649452</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-0.15632649670000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-0.1564782663</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-0.15648698890000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-0.15704624310000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-0.15755563829999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-0.1576452287</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-0.15823449489999999</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-0.15833071039999999</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-0.15833071039999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-0.15833071039999999</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-0.15913501469999999</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-0.15927217439999999</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-0.1593270695</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-0.1593270695</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-0.1593270695</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-0.1593270695</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-0.1593270695</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-0.15944484410000001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-0.15944484410000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-0.15944484410000001</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-0.15944484410000001</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-0.15944484410000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-0.15947245239999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-0.15961511749999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-0.1574219127</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-0.15717396550000001</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-0.15626751850000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-0.1545579477</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-0.1540343713</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-0.15197857140000001</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-0.1516104559</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-0.15017037699999999</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-0.18110275270000001</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-0.14638370170000001</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-0.1491737366</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-0.14610650980000001</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-0.14596122989999999</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-0.14579532989999999</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-0.14566135620000001</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-0.1447828062</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-0.144394573</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-0.14206313779999999</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-0.13952230290000001</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-0.1386253214</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-0.13770140559999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-0.13603358970000001</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-0.13494283609999999</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-0.13130907659999999</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-0.13410749890000001</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-0.12767314909999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-0.1339321872</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-0.13394297560000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-0.13381189299999999</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-0.13267720320000001</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-0.13130907659999999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-0.1302148756</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-0.12986486059999999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-0.12887806409999999</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-0.12861910779999999</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-0.12826972389999999</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-0.12758298130000001</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-0.12734465070000001</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-0.12695981009999999</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-0.1266085753</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-0.1266085753</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-0.1244298735</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-0.1236149695</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-0.12306053679999999</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-0.12274012419999999</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-0.122472383</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-0.122472383</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-0.120487342</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-0.1196780087</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-0.1194381072</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-0.11919979579999999</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-0.1168152405</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-0.11635410190000001</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-0.1162734185</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-0.1162734185</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-0.1160725454</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-0.11598191839999999</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-0.1155612114</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]data_points!$A:$A</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
@@ -1298,696 +2043,6 @@
                 </c:pt>
                 <c:pt idx="226">
                   <c:v>51.529758579999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[2]data_points!$B:$B</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>-0.16011779910000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.16040688240000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.16062694280000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.16053670340000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.16045812170000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.1606820971</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.160790974</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.16075816570000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.16074381870000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.16115347620000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.1618168015</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.16254633569999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.16298497179999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.16303419599999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.1632178296</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.1633707808</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.16299822359999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.1627860142</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.16268601099999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.16277497490000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.1631475242</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.163561765</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.16374090220000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.16374607150000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.16374607129999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.16374607129999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.16374607129999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.16374607129999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.16374607129999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.16374607129999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.16374607129999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.16374607129999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.16374607129999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-0.16374607129999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.16374607129999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.16374607129999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.16374607129999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-0.16374607129999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-0.16374607129999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-0.16374607129999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-0.16374607129999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-0.16374607129999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-0.16374607129999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-0.16374607129999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-0.16374607129999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.16374607129999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.16374607129999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.16374607129999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-0.16374607129999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-0.16374018360000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-0.16350567290000001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-0.16315570239999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-0.162940841</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-0.16293423639999999</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-0.16259841150000001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-0.16186532149999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-0.16094624169999999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-0.1593338762</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-0.1591598209</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-0.1591598209</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-0.1591598209</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-0.1587803518</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-0.1581672952</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-0.15760849809999999</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-0.1573533235</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-0.1567785622</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-0.1560206499</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-0.1554224532</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-0.15467130940000001</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-0.15434417459999999</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-0.15430388759999999</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-0.15421545689999999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-0.15395552009999999</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-0.15379850610000001</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-0.17560958860000001</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-0.15455034670000001</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-0.15482374469999999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-0.1547229289</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-0.15411358720000001</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-0.15355052559999999</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-0.15298529929999999</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-0.152298355</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-0.15182118759999999</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-0.15140472739999999</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-0.15102502379999999</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-0.15084293069999999</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-0.15064067649999999</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-0.15049859199999999</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-0.15045036079999999</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-0.15043493799999999</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-0.1503960268</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-0.1503960268</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-0.17449378970000001</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-0.15035591640000001</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-0.15030449779999999</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-0.15008530540000001</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-0.1498789432</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-0.14999280400000001</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-0.1506926458</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-0.1513014885</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-0.15155444339999999</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>-0.15156534739999999</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>-0.15156670059999999</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>-0.15156577299999999</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>-0.15156577299999999</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>-0.1518291547</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-0.1521038794</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>-0.1522178189</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>-0.15223618229999999</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>-0.15224832620000001</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-0.15235266450000001</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-0.1520493295</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>-0.15157193369999999</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>-0.15110461989999999</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>-0.15123364380000001</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>-0.15159125979999999</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>-0.15212866280000001</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>-0.15205350100000001</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>-0.15190461650000001</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>-0.1520323271</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>-0.15269343769999999</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>-0.15344857370000001</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>-0.15416305250000001</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>-0.15471346659999999</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>-0.15526277220000001</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>-0.1554880484</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-0.15561689649999999</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-0.15588486069999999</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>-0.1562271777</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-0.1565372817</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-0.15684457939999999</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>-0.1570609707</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>-0.1571154642</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>-0.15723469840000001</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>-0.17294883729999999</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>-0.1575284699</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>-0.1575436076</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>-0.15754496500000001</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>-0.15591599079999999</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>-0.15488621159999999</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>-0.1549884144</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>-0.15573168530000001</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>-0.1560767018</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>-0.156079042</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>-0.1560649452</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>-0.15632649670000001</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>-0.1564782663</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>-0.15648698890000001</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>-0.15704624310000001</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>-0.15755563829999999</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>-0.1576452287</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>-0.15823449489999999</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>-0.15833071039999999</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>-0.15833071039999999</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>-0.15833071039999999</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>-0.15913501469999999</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>-0.15927217439999999</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>-0.1593270695</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>-0.1593270695</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>-0.1593270695</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>-0.1593270695</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>-0.1593270695</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>-0.15944484410000001</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>-0.15944484410000001</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>-0.15944484410000001</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>-0.15944484410000001</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>-0.15944484410000001</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>-0.15947245239999999</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>-0.15961511749999999</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>-0.1574219127</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>-0.15717396550000001</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>-0.15626751850000001</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>-0.1545579477</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>-0.1540343713</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>-0.15197857140000001</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>-0.1516104559</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>-0.15017037699999999</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>-0.18110275270000001</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>-0.14638370170000001</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>-0.1491737366</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>-0.14610650980000001</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>-0.14596122989999999</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>-0.14579532989999999</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>-0.14566135620000001</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>-0.1447828062</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>-0.144394573</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>-0.14206313779999999</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>-0.13952230290000001</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>-0.1386253214</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>-0.13770140559999999</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>-0.13603358970000001</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>-0.13494283609999999</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>-0.13130907659999999</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>-0.13410749890000001</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>-0.12767314909999999</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>-0.1339321872</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>-0.13394297560000001</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>-0.13381189299999999</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>-0.13267720320000001</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>-0.13130907659999999</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>-0.1302148756</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>-0.12986486059999999</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>-0.12887806409999999</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>-0.12861910779999999</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>-0.12826972389999999</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>-0.12758298130000001</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>-0.12734465070000001</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>-0.12695981009999999</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>-0.1266085753</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>-0.1266085753</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>-0.1244298735</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>-0.1236149695</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>-0.12306053679999999</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>-0.12274012419999999</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>-0.122472383</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>-0.122472383</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>-0.120487342</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>-0.1196780087</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>-0.1194381072</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>-0.11919979579999999</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>-0.1168152405</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>-0.11635410190000001</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>-0.1162734185</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>-0.1162734185</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>-0.1160725454</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>-0.11598191839999999</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>-0.1155612114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1995,7 +2050,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6DFB-4BF8-B333-A2EA1809CFA9}"/>
+              <c16:uniqueId val="{00000000-09BE-4E2E-9B7E-D208B8525455}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2003,7 +2058,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Changed</c:v>
+            <c:v>Filtered</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2031,7 +2086,619 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]output!$A:$A</c:f>
+              <c:f>[2]output!$B:$B</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>-0.16011800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.16053700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.16045799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.16068199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.16079099999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.16075800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.160744</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.16115299999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.16181699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.162546</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.16298499999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.16303400000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.163218</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.16337099999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.162998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.16278599999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.162686</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.162775</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.16314799999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.16356200000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.163741</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.163746</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.163746</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.163746</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.163746</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.163746</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.163746</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.163746</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.163746</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.163746</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.163746</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.163746</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.163746</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.163746</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.163746</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.163746</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.163746</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.163746</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.163746</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.163746</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.163746</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.163746</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.163746</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.163746</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.163746</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.163746</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.163746</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.16374</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.16350600000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.163156</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.162941</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.162934</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.16259799999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.16186500000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.16094600000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.159334</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.15916</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.15916</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.15916</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.15878</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.158167</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.157608</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.15735299999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.156779</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.15602099999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.155422</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.154671</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.15434400000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.154304</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.15421499999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.15379899999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.15482399999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.154114</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.15355099999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.15298500000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.15229799999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.15182100000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.15140500000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.15102499999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.150843</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.150641</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.15049899999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.15045</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.15043500000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.150396</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.15030399999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.14987900000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.14999299999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.15069299999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.15130099999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.15155399999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.15156500000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.15156700000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.15156600000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.15156600000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.15182899999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.15210399999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.15221799999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.15223600000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.15224799999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.15235299999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.15204899999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.15157200000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.15110499999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.15123400000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.151591</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.15212899999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.15205399999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.15190500000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.152032</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.152693</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.153449</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.15416299999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.15471299999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-0.15526300000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-0.15548799999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.15561700000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.155885</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-0.156227</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.15653700000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.15684500000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-0.15706100000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-0.15723500000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-0.15754399999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-0.155916</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.154886</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.15498799999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-0.15573200000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.15607699999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-0.156079</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.15606500000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-0.15632599999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.15647800000000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-0.15648699999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.15704599999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-0.157556</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-0.15764500000000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-0.15823400000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.158331</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.158331</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-0.158331</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-0.159135</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-0.159272</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-0.159327</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-0.159327</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-0.159327</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-0.159327</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-0.159327</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-0.159445</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-0.159445</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-0.159445</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-0.159445</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-0.159445</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-0.159472</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-0.15961500000000001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-0.15742200000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-0.15717400000000001</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-0.15626799999999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-0.154558</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-0.154034</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-0.151979</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-0.15017</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-0.14596100000000001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-0.14566100000000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-0.144783</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-0.144395</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-0.14206299999999999</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-0.13952200000000001</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-0.138625</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-0.13770099999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-0.13603399999999999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-0.13494300000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-0.13394300000000001</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-0.13381199999999999</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-0.13267699999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-0.13130900000000001</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-0.130215</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-0.12986500000000001</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-0.12887799999999999</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-0.12861900000000001</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-0.12827</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-0.127583</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-0.12734500000000001</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-0.12695999999999999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-0.126609</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-0.126609</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-0.12443</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-0.123615</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-0.123061</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-0.12274</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-0.122472</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-0.122472</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-0.120487</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-0.11967800000000001</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-0.119438</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-0.1192</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-0.116815</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-0.116354</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-0.116273</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-0.116273</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-0.116073</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[2]output!$A:$A</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
@@ -2039,64 +2706,64 @@
                   <c:v>51.498699999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.498399999999997</c:v>
+                  <c:v>51.497999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.498199999999997</c:v>
+                  <c:v>51.497700000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.497999999999998</c:v>
+                  <c:v>51.497300000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.497700000000002</c:v>
+                  <c:v>51.497100000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.495899999999999</c:v>
+                  <c:v>51.497</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.495899999999999</c:v>
+                  <c:v>51.497</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.495899999999999</c:v>
+                  <c:v>51.497</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51.495899999999999</c:v>
+                  <c:v>51.496899999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51.495899999999999</c:v>
+                  <c:v>51.4968</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51.495899999999999</c:v>
+                  <c:v>51.496699999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>51.495899999999999</c:v>
+                  <c:v>51.496699999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51.495899999999999</c:v>
+                  <c:v>51.496499999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>51.495899999999999</c:v>
+                  <c:v>51.496200000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>51.495899999999999</c:v>
+                  <c:v>51.496099999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51.495899999999999</c:v>
+                  <c:v>51.495800000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>51.495899999999999</c:v>
+                  <c:v>51.495100000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>51.495899999999999</c:v>
+                  <c:v>51.494900000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>51.495899999999999</c:v>
+                  <c:v>51.494999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>51.495899999999999</c:v>
+                  <c:v>51.495399999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>51.495899999999999</c:v>
+                  <c:v>51.495699999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>51.495899999999999</c:v>
@@ -2114,181 +2781,529 @@
                   <c:v>51.495899999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>51.495899999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>51.495899999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>51.495899999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>51.495899999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>51.495899999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51.495899999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>51.495899999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>51.495899999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51.495899999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>51.495899999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51.495899999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>51.495899999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>51.495899999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>51.495899999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>51.495899999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>51.495899999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>51.495899999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>51.495899999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51.495899999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>51.495899999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51.495899999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>51.496000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>51.496299999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>51.496600000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>51.496699999999997</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="51">
+                  <c:v>51.496699999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>51.4968</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>51.496899999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>51.497</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>51.497199999999999</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="56">
+                  <c:v>51.497199999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>51.497199999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>51.497199999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>51.497199999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>51.497300000000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>51.497399999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>51.497399999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>51.497399999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>51.497500000000002</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="65">
+                  <c:v>51.497500000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>51.497599999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>51.497700000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>51.497799999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>51.497799999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>51.498199999999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>51.499099999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>51.499899999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>51.500100000000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>51.499699999999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>51.499400000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>51.499600000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>51.499899999999997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>51.500100000000003</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>51.500100000000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>51.500100000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>51.5002</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="84">
+                  <c:v>51.5002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>51.500300000000003</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>51.500599999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>51.500799999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>51.501100000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>51.5015</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>51.5017</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="91">
+                  <c:v>51.5017</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>51.5017</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>51.501800000000003</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="94">
+                  <c:v>51.501800000000003</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>51.502000000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>51.502499999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>51.502600000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>51.502699999999997</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>51.502699999999997</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>51.502899999999997</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>51.503100000000003</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>51.5032</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>51.503399999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>51.503799999999998</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>51.504100000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>51.504300000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>51.5047</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>51.505400000000002</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>51.505899999999997</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>51.506700000000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>51.507300000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>51.507899999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>51.508400000000002</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>51.508800000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>51.509</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>51.509099999999997</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>51.509300000000003</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>51.509500000000003</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>51.509700000000002</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>51.51</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>51.510199999999998</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>51.510399999999997</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>51.510800000000003</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>51.511299999999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>51.511600000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>51.511699999999998</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>51.513100000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>51.513599999999997</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>51.5137</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>51.514200000000002</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>51.514600000000002</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>51.514899999999997</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>51.515000000000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>51.516100000000002</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>51.517099999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>51.517299999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>51.518700000000003</c:v>
+                </c:pt>
+                <c:pt idx="138">
                   <c:v>51.518900000000002</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="139">
+                  <c:v>51.518900000000002</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>51.518900000000002</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>51.520699999999998</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>51.521000000000001</c:v>
+                </c:pt>
+                <c:pt idx="143">
                   <c:v>51.521099999999997</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="144">
                   <c:v>51.521099999999997</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="145">
+                  <c:v>51.521099999999997</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>51.521099999999997</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>51.521099999999997</c:v>
+                </c:pt>
+                <c:pt idx="148">
                   <c:v>51.5214</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="149">
                   <c:v>51.5214</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="150">
+                  <c:v>51.5214</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>51.5214</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>51.5214</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>51.521500000000003</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>51.521799999999999</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>51.522300000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>51.522300000000001</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>51.522500000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>51.522799999999997</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>51.5229</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>51.523200000000003</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>51.523400000000002</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>51.523899999999998</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>51.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>51.524099999999997</c:v>
+                </c:pt>
+                <c:pt idx="165">
                   <c:v>51.5242</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="166">
+                  <c:v>51.524099999999997</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>51.524700000000003</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>51.524900000000002</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>51.525100000000002</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>51.525599999999997</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>51.525799999999997</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>51.526200000000003</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>51.526299999999999</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>51.526699999999998</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>51.527200000000001</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>51.5276</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>51.527700000000003</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>51.527999999999999</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>51.528100000000002</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>51.528199999999998</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>51.528399999999998</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>51.528500000000001</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>51.528799999999997</c:v>
+                </c:pt>
+                <c:pt idx="184">
                   <c:v>51.5289</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="185">
+                  <c:v>51.5289</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>51.529899999999998</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>51.530299999999997</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>51.530500000000004</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>51.5306</c:v>
+                </c:pt>
+                <c:pt idx="190">
                   <c:v>51.530700000000003</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="191">
+                  <c:v>51.530700000000003</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>51.530900000000003</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>51.530900000000003</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>51.530900000000003</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>51.530799999999999</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>51.530200000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
                   <c:v>51.530099999999997</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[1]output!$B:$B</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>-0.16011800000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.16040699999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.16062699999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.16053700000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.16045799999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.163746</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.163746</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.163746</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.163746</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.163746</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.163746</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.163746</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.163746</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.163746</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.163746</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.163746</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.163746</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.163746</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.163746</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.163746</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.163746</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.163746</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.163746</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.163746</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.163746</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.163746</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.162934</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.15916</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.155422</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.150396</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.15156500000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.15156600000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.158331</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-0.159327</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.159327</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.159445</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.159445</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-0.144395</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-0.126609</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-0.122472</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-0.116273</c:v>
+                <c:pt idx="198">
+                  <c:v>51.530099999999997</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>51.530099999999997</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>51.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2296,11 +3311,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6DFB-4BF8-B333-A2EA1809CFA9}"/>
+              <c16:uniqueId val="{00000001-09BE-4E2E-9B7E-D208B8525455}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2308,13 +3324,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="610999960"/>
-        <c:axId val="611285264"/>
+        <c:axId val="1209709912"/>
+        <c:axId val="1209710568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="610999960"/>
+        <c:axId val="1209709912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="-0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2332,6 +3349,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Longitude</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2369,12 +3441,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="611285264"/>
+        <c:crossAx val="1209710568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="611285264"/>
+        <c:axId val="1209710568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2394,6 +3466,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Latitude</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2431,7 +3558,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610999960"/>
+        <c:crossAx val="1209709912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2443,6 +3570,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3047,23 +4205,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49C3A45-2302-42F3-977F-A266742F0567}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3921AD5B-D1F1-406D-9F4D-A42649BB4448}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3088,336 +4246,1824 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="output"/>
+      <sheetName val="data_points"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="1">
           <cell r="A1">
-            <v>51.498699999999999</v>
+            <v>51.498714929999998</v>
           </cell>
           <cell r="B1">
-            <v>-0.16011800000000001</v>
+            <v>-0.16011779910000001</v>
           </cell>
         </row>
         <row r="2">
           <cell r="A2">
-            <v>51.498399999999997</v>
+            <v>51.498405859999998</v>
           </cell>
           <cell r="B2">
-            <v>-0.16040699999999999</v>
+            <v>-0.16040688240000001</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3">
-            <v>51.498199999999997</v>
+            <v>51.49820502</v>
           </cell>
           <cell r="B3">
-            <v>-0.16062699999999999</v>
+            <v>-0.16062694280000001</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4">
-            <v>51.497999999999998</v>
+            <v>51.498041550000003</v>
           </cell>
           <cell r="B4">
-            <v>-0.16053700000000001</v>
+            <v>-0.16053670340000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5">
-            <v>51.497700000000002</v>
+            <v>51.497699480000001</v>
           </cell>
           <cell r="B5">
-            <v>-0.16045799999999999</v>
+            <v>-0.16045812170000001</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6">
-            <v>51.495899999999999</v>
+            <v>51.49733998</v>
           </cell>
           <cell r="B6">
-            <v>-0.163746</v>
+            <v>-0.1606820971</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>51.495899999999999</v>
+            <v>51.49709369</v>
           </cell>
           <cell r="B7">
-            <v>-0.163746</v>
+            <v>-0.160790974</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8">
-            <v>51.495899999999999</v>
+            <v>51.497047270000003</v>
           </cell>
           <cell r="B8">
-            <v>-0.163746</v>
+            <v>-0.16075816570000001</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>51.495899999999999</v>
+            <v>51.49703908</v>
           </cell>
           <cell r="B9">
-            <v>-0.163746</v>
+            <v>-0.16074381870000001</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>51.495899999999999</v>
+            <v>51.496962230000001</v>
           </cell>
           <cell r="B10">
-            <v>-0.163746</v>
+            <v>-0.16115347620000001</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>51.495899999999999</v>
+            <v>51.496898190000003</v>
           </cell>
           <cell r="B11">
-            <v>-0.163746</v>
+            <v>-0.1618168015</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>51.495899999999999</v>
+            <v>51.496832019999999</v>
           </cell>
           <cell r="B12">
-            <v>-0.163746</v>
+            <v>-0.16254633569999999</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>51.495899999999999</v>
+            <v>51.496701199999997</v>
           </cell>
           <cell r="B13">
-            <v>-0.163746</v>
+            <v>-0.16298497179999999</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>51.495899999999999</v>
+            <v>51.496664330000002</v>
           </cell>
           <cell r="B14">
-            <v>-0.163746</v>
+            <v>-0.16303419599999999</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>51.495899999999999</v>
+            <v>51.496456199999997</v>
           </cell>
           <cell r="B15">
-            <v>-0.163746</v>
+            <v>-0.1632178296</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>51.495899999999999</v>
+            <v>51.496238339999998</v>
           </cell>
           <cell r="B16">
-            <v>-0.163746</v>
+            <v>-0.1633707808</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>51.495899999999999</v>
+            <v>51.496085489999999</v>
           </cell>
           <cell r="B17">
-            <v>-0.163746</v>
+            <v>-0.16299822359999999</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>51.495899999999999</v>
+            <v>51.495775950000002</v>
           </cell>
           <cell r="B18">
-            <v>-0.163746</v>
+            <v>-0.1627860142</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>51.495899999999999</v>
+            <v>51.495125119999997</v>
           </cell>
           <cell r="B19">
-            <v>-0.163746</v>
+            <v>-0.16268601099999999</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>51.495899999999999</v>
+            <v>51.4948725</v>
           </cell>
           <cell r="B20">
-            <v>-0.163746</v>
+            <v>-0.16277497490000001</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>51.495899999999999</v>
+            <v>51.495021059999999</v>
           </cell>
           <cell r="B21">
-            <v>-0.163746</v>
+            <v>-0.1631475242</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>51.495899999999999</v>
+            <v>51.495363759999996</v>
           </cell>
           <cell r="B22">
-            <v>-0.163746</v>
+            <v>-0.163561765</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>51.495899999999999</v>
+            <v>51.495707289999999</v>
           </cell>
           <cell r="B23">
-            <v>-0.163746</v>
+            <v>-0.16374090220000001</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>51.495899999999999</v>
+            <v>51.49588258</v>
           </cell>
           <cell r="B24">
-            <v>-0.163746</v>
+            <v>-0.16374607150000001</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>51.495899999999999</v>
+            <v>51.49588258</v>
           </cell>
           <cell r="B25">
-            <v>-0.163746</v>
+            <v>-0.16374607129999999</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>51.495899999999999</v>
+            <v>51.49588258</v>
           </cell>
           <cell r="B26">
-            <v>-0.163746</v>
+            <v>-0.16374607129999999</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>51.496699999999997</v>
+            <v>51.49588258</v>
           </cell>
           <cell r="B27">
-            <v>-0.162934</v>
+            <v>-0.16374607129999999</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>51.497199999999999</v>
+            <v>51.49588258</v>
           </cell>
           <cell r="B28">
-            <v>-0.15916</v>
+            <v>-0.16374607129999999</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>51.497500000000002</v>
+            <v>51.49588258</v>
           </cell>
           <cell r="B29">
-            <v>-0.155422</v>
+            <v>-0.16374607129999999</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>51.5002</v>
+            <v>51.49588258</v>
           </cell>
           <cell r="B30">
-            <v>-0.150396</v>
+            <v>-0.16374607129999999</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>51.5017</v>
+            <v>51.49588258</v>
           </cell>
           <cell r="B31">
-            <v>-0.15156500000000001</v>
+            <v>-0.16374607129999999</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>51.501800000000003</v>
+            <v>51.49588258</v>
           </cell>
           <cell r="B32">
-            <v>-0.15156600000000001</v>
+            <v>-0.16374607129999999</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>51.518900000000002</v>
+            <v>51.49588258</v>
           </cell>
           <cell r="B33">
-            <v>-0.158331</v>
+            <v>-0.16374607129999999</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>51.521099999999997</v>
+            <v>51.49588258</v>
           </cell>
           <cell r="B34">
-            <v>-0.159327</v>
+            <v>-0.16374607129999999</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>51.521099999999997</v>
+            <v>51.49588258</v>
           </cell>
           <cell r="B35">
-            <v>-0.159327</v>
+            <v>-0.16374607129999999</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>51.5214</v>
+            <v>51.49588258</v>
           </cell>
           <cell r="B36">
-            <v>-0.159445</v>
+            <v>-0.16374607129999999</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>51.5214</v>
+            <v>51.49588258</v>
           </cell>
           <cell r="B37">
-            <v>-0.159445</v>
+            <v>-0.16374607129999999</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>51.5242</v>
+            <v>51.49588258</v>
           </cell>
           <cell r="B38">
-            <v>-0.144395</v>
+            <v>-0.16374607129999999</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>51.5289</v>
+            <v>51.49588258</v>
           </cell>
           <cell r="B39">
-            <v>-0.126609</v>
+            <v>-0.16374607129999999</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>51.530700000000003</v>
+            <v>51.49588258</v>
           </cell>
           <cell r="B40">
-            <v>-0.122472</v>
+            <v>-0.16374607129999999</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>51.530099999999997</v>
+            <v>51.49588258</v>
           </cell>
           <cell r="B41">
-            <v>-0.116273</v>
+            <v>-0.16374607129999999</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>51.49588258</v>
+          </cell>
+          <cell r="B42">
+            <v>-0.16374607129999999</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>51.49588258</v>
+          </cell>
+          <cell r="B43">
+            <v>-0.16374607129999999</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>51.49588258</v>
+          </cell>
+          <cell r="B44">
+            <v>-0.16374607129999999</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>51.49588258</v>
+          </cell>
+          <cell r="B45">
+            <v>-0.16374607129999999</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>51.49588258</v>
+          </cell>
+          <cell r="B46">
+            <v>-0.16374607129999999</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>51.49588258</v>
+          </cell>
+          <cell r="B47">
+            <v>-0.16374607129999999</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>51.49588258</v>
+          </cell>
+          <cell r="B48">
+            <v>-0.16374607129999999</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>51.49588258</v>
+          </cell>
+          <cell r="B49">
+            <v>-0.16374607129999999</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>51.496024220000002</v>
+          </cell>
+          <cell r="B50">
+            <v>-0.16374018360000001</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>51.496279149999999</v>
+          </cell>
+          <cell r="B51">
+            <v>-0.16350567290000001</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>51.496565240000002</v>
+          </cell>
+          <cell r="B52">
+            <v>-0.16315570239999999</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>51.496739759999997</v>
+          </cell>
+          <cell r="B53">
+            <v>-0.162940841</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>51.496744870000001</v>
+          </cell>
+          <cell r="B54">
+            <v>-0.16293423639999999</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>51.49683813</v>
+          </cell>
+          <cell r="B55">
+            <v>-0.16259841150000001</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>51.496886889999999</v>
+          </cell>
+          <cell r="B56">
+            <v>-0.16186532149999999</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>51.496963149999999</v>
+          </cell>
+          <cell r="B57">
+            <v>-0.16094624169999999</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>51.497155859999999</v>
+          </cell>
+          <cell r="B58">
+            <v>-0.1593338762</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>51.497191049999998</v>
+          </cell>
+          <cell r="B59">
+            <v>-0.1591598209</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>51.497191049999998</v>
+          </cell>
+          <cell r="B60">
+            <v>-0.1591598209</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>51.497191049999998</v>
+          </cell>
+          <cell r="B61">
+            <v>-0.1591598209</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>51.497229830000002</v>
+          </cell>
+          <cell r="B62">
+            <v>-0.1587803518</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>51.497288650000002</v>
+          </cell>
+          <cell r="B63">
+            <v>-0.1581672952</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>51.497360790000002</v>
+          </cell>
+          <cell r="B64">
+            <v>-0.15760849809999999</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>51.49738859</v>
+          </cell>
+          <cell r="B65">
+            <v>-0.1573533235</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>51.497428149999998</v>
+          </cell>
+          <cell r="B66">
+            <v>-0.1567785622</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>51.497483750000001</v>
+          </cell>
+          <cell r="B67">
+            <v>-0.1560206499</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>51.497488820000001</v>
+          </cell>
+          <cell r="B68">
+            <v>-0.1554224532</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>51.497567429999997</v>
+          </cell>
+          <cell r="B69">
+            <v>-0.15467130940000001</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>51.497725080000002</v>
+          </cell>
+          <cell r="B70">
+            <v>-0.15434417459999999</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>51.49775047</v>
+          </cell>
+          <cell r="B71">
+            <v>-0.15430388759999999</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>51.497809760000003</v>
+          </cell>
+          <cell r="B72">
+            <v>-0.15421545689999999</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>51.498000060000003</v>
+          </cell>
+          <cell r="B73">
+            <v>-0.15395552009999999</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>51.498151360000001</v>
+          </cell>
+          <cell r="B74">
+            <v>-0.15379850610000001</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>51.511386700000003</v>
+          </cell>
+          <cell r="B75">
+            <v>-0.17560958860000001</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>51.498804630000002</v>
+          </cell>
+          <cell r="B76">
+            <v>-0.15455034670000001</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>51.499081250000003</v>
+          </cell>
+          <cell r="B77">
+            <v>-0.15482374469999999</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>51.499441040000001</v>
+          </cell>
+          <cell r="B78">
+            <v>-0.1547229289</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>51.499858349999997</v>
+          </cell>
+          <cell r="B79">
+            <v>-0.15411358720000001</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>51.50009111</v>
+          </cell>
+          <cell r="B80">
+            <v>-0.15355052559999999</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>51.500035560000001</v>
+          </cell>
+          <cell r="B81">
+            <v>-0.15298529929999999</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>51.499660210000002</v>
+          </cell>
+          <cell r="B82">
+            <v>-0.152298355</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>51.499359839999997</v>
+          </cell>
+          <cell r="B83">
+            <v>-0.15182118759999999</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>51.49957508</v>
+          </cell>
+          <cell r="B84">
+            <v>-0.15140472739999999</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>51.499853010000002</v>
+          </cell>
+          <cell r="B85">
+            <v>-0.15102502379999999</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>51.499968369999998</v>
+          </cell>
+          <cell r="B86">
+            <v>-0.15084293069999999</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>51.500090870000001</v>
+          </cell>
+          <cell r="B87">
+            <v>-0.15064067649999999</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>51.500139009999998</v>
+          </cell>
+          <cell r="B88">
+            <v>-0.15049859199999999</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>51.500148289999998</v>
+          </cell>
+          <cell r="B89">
+            <v>-0.15045036079999999</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>51.500162330000002</v>
+          </cell>
+          <cell r="B90">
+            <v>-0.15043493799999999</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>51.500190289999999</v>
+          </cell>
+          <cell r="B91">
+            <v>-0.1503960268</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>51.500190289999999</v>
+          </cell>
+          <cell r="B92">
+            <v>-0.1503960268</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>51.511520249999997</v>
+          </cell>
+          <cell r="B93">
+            <v>-0.17449378970000001</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>51.500258029999998</v>
+          </cell>
+          <cell r="B94">
+            <v>-0.15035591640000001</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>51.500303690000003</v>
+          </cell>
+          <cell r="B95">
+            <v>-0.15030449779999999</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>51.500476919999997</v>
+          </cell>
+          <cell r="B96">
+            <v>-0.15008530540000001</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>51.500625280000001</v>
+          </cell>
+          <cell r="B97">
+            <v>-0.1498789432</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>51.500784719999999</v>
+          </cell>
+          <cell r="B98">
+            <v>-0.14999280400000001</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>51.501139600000002</v>
+          </cell>
+          <cell r="B99">
+            <v>-0.1506926458</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>51.501546359999999</v>
+          </cell>
+          <cell r="B100">
+            <v>-0.1513014885</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>51.501736800000003</v>
+          </cell>
+          <cell r="B101">
+            <v>-0.15155444339999999</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102">
+            <v>51.501744670000001</v>
+          </cell>
+          <cell r="B102">
+            <v>-0.15156534739999999</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103">
+            <v>51.501746850000004</v>
+          </cell>
+          <cell r="B103">
+            <v>-0.15156670059999999</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104">
+            <v>51.50175754</v>
+          </cell>
+          <cell r="B104">
+            <v>-0.15156577299999999</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105">
+            <v>51.50175754</v>
+          </cell>
+          <cell r="B105">
+            <v>-0.15156577299999999</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106">
+            <v>51.5020375</v>
+          </cell>
+          <cell r="B106">
+            <v>-0.1518291547</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107">
+            <v>51.502454319999998</v>
+          </cell>
+          <cell r="B107">
+            <v>-0.1521038794</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108">
+            <v>51.502647639999999</v>
+          </cell>
+          <cell r="B108">
+            <v>-0.1522178189</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109">
+            <v>51.502687709999996</v>
+          </cell>
+          <cell r="B109">
+            <v>-0.15223618229999999</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110">
+            <v>51.502706009999997</v>
+          </cell>
+          <cell r="B110">
+            <v>-0.15224832620000001</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111">
+            <v>51.502903379999999</v>
+          </cell>
+          <cell r="B111">
+            <v>-0.15235266450000001</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112">
+            <v>51.503127839999998</v>
+          </cell>
+          <cell r="B112">
+            <v>-0.1520493295</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113">
+            <v>51.503219780000002</v>
+          </cell>
+          <cell r="B113">
+            <v>-0.15157193369999999</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114">
+            <v>51.503424510000002</v>
+          </cell>
+          <cell r="B114">
+            <v>-0.15110461989999999</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115">
+            <v>51.503826109999999</v>
+          </cell>
+          <cell r="B115">
+            <v>-0.15123364380000001</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116">
+            <v>51.504077330000001</v>
+          </cell>
+          <cell r="B116">
+            <v>-0.15159125979999999</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117">
+            <v>51.50429218</v>
+          </cell>
+          <cell r="B117">
+            <v>-0.15212866280000001</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118">
+            <v>51.504729949999998</v>
+          </cell>
+          <cell r="B118">
+            <v>-0.15205350100000001</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119">
+            <v>51.505370900000003</v>
+          </cell>
+          <cell r="B119">
+            <v>-0.15190461650000001</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120">
+            <v>51.50585762</v>
+          </cell>
+          <cell r="B120">
+            <v>-0.1520323271</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121">
+            <v>51.506660979999999</v>
+          </cell>
+          <cell r="B121">
+            <v>-0.15269343769999999</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122">
+            <v>51.50732558</v>
+          </cell>
+          <cell r="B122">
+            <v>-0.15344857370000001</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123">
+            <v>51.507947119999997</v>
+          </cell>
+          <cell r="B123">
+            <v>-0.15416305250000001</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124">
+            <v>51.508399740000002</v>
+          </cell>
+          <cell r="B124">
+            <v>-0.15471346659999999</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125">
+            <v>51.508825440000003</v>
+          </cell>
+          <cell r="B125">
+            <v>-0.15526277220000001</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126">
+            <v>51.509001410000003</v>
+          </cell>
+          <cell r="B126">
+            <v>-0.1554880484</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127">
+            <v>51.509090460000003</v>
+          </cell>
+          <cell r="B127">
+            <v>-0.15561689649999999</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128">
+            <v>51.50926029</v>
+          </cell>
+          <cell r="B128">
+            <v>-0.15588486069999999</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129">
+            <v>51.509525400000001</v>
+          </cell>
+          <cell r="B129">
+            <v>-0.1562271777</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130">
+            <v>51.509745500000001</v>
+          </cell>
+          <cell r="B130">
+            <v>-0.1565372817</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131">
+            <v>51.510006939999997</v>
+          </cell>
+          <cell r="B131">
+            <v>-0.15684457939999999</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132">
+            <v>51.510216589999999</v>
+          </cell>
+          <cell r="B132">
+            <v>-0.1570609707</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133">
+            <v>51.510267110000001</v>
+          </cell>
+          <cell r="B133">
+            <v>-0.1571154642</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134">
+            <v>51.510369140000002</v>
+          </cell>
+          <cell r="B134">
+            <v>-0.15723469840000001</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="A135">
+            <v>51.511306580000003</v>
+          </cell>
+          <cell r="B135">
+            <v>-0.17294883729999999</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="A136">
+            <v>51.510751710000001</v>
+          </cell>
+          <cell r="B136">
+            <v>-0.1575284699</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="A137">
+            <v>51.510780050000001</v>
+          </cell>
+          <cell r="B137">
+            <v>-0.1575436076</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="A138">
+            <v>51.510809190000003</v>
+          </cell>
+          <cell r="B138">
+            <v>-0.15754496500000001</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="A139">
+            <v>51.511258439999999</v>
+          </cell>
+          <cell r="B139">
+            <v>-0.15591599079999999</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="A140">
+            <v>51.511560510000002</v>
+          </cell>
+          <cell r="B140">
+            <v>-0.15488621159999999</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="A141">
+            <v>51.511721729999998</v>
+          </cell>
+          <cell r="B141">
+            <v>-0.1549884144</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="A142">
+            <v>51.513067929999998</v>
+          </cell>
+          <cell r="B142">
+            <v>-0.15573168530000001</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="A143">
+            <v>51.513589830000001</v>
+          </cell>
+          <cell r="B143">
+            <v>-0.1560767018</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="A144">
+            <v>51.51373504</v>
+          </cell>
+          <cell r="B144">
+            <v>-0.156079042</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="A145">
+            <v>51.514246129999997</v>
+          </cell>
+          <cell r="B145">
+            <v>-0.1560649452</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="A146">
+            <v>51.514637819999997</v>
+          </cell>
+          <cell r="B146">
+            <v>-0.15632649670000001</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="A147">
+            <v>51.514880699999999</v>
+          </cell>
+          <cell r="B147">
+            <v>-0.1564782663</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="A148">
+            <v>51.514977399999999</v>
+          </cell>
+          <cell r="B148">
+            <v>-0.15648698890000001</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="A149">
+            <v>51.51605429</v>
+          </cell>
+          <cell r="B149">
+            <v>-0.15704624310000001</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="A150">
+            <v>51.517116610000002</v>
+          </cell>
+          <cell r="B150">
+            <v>-0.15755563829999999</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="A151">
+            <v>51.517327139999999</v>
+          </cell>
+          <cell r="B151">
+            <v>-0.1576452287</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="A152">
+            <v>51.518678970000003</v>
+          </cell>
+          <cell r="B152">
+            <v>-0.15823449489999999</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="A153">
+            <v>51.518888500000003</v>
+          </cell>
+          <cell r="B153">
+            <v>-0.15833071039999999</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="A154">
+            <v>51.518888500000003</v>
+          </cell>
+          <cell r="B154">
+            <v>-0.15833071039999999</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="A155">
+            <v>51.518888500000003</v>
+          </cell>
+          <cell r="B155">
+            <v>-0.15833071039999999</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="A156">
+            <v>51.520727020000002</v>
+          </cell>
+          <cell r="B156">
+            <v>-0.15913501469999999</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="A157">
+            <v>51.521030199999998</v>
+          </cell>
+          <cell r="B157">
+            <v>-0.15927217439999999</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="A158">
+            <v>51.521121129999997</v>
+          </cell>
+          <cell r="B158">
+            <v>-0.1593270695</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="A159">
+            <v>51.521121129999997</v>
+          </cell>
+          <cell r="B159">
+            <v>-0.1593270695</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="A160">
+            <v>51.521121129999997</v>
+          </cell>
+          <cell r="B160">
+            <v>-0.1593270695</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="A161">
+            <v>51.521121129999997</v>
+          </cell>
+          <cell r="B161">
+            <v>-0.1593270695</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="A162">
+            <v>51.521121129999997</v>
+          </cell>
+          <cell r="B162">
+            <v>-0.1593270695</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="A163">
+            <v>51.521377209999997</v>
+          </cell>
+          <cell r="B163">
+            <v>-0.15944484410000001</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="A164">
+            <v>51.521377209999997</v>
+          </cell>
+          <cell r="B164">
+            <v>-0.15944484410000001</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="A165">
+            <v>51.521377209999997</v>
+          </cell>
+          <cell r="B165">
+            <v>-0.15944484410000001</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="A166">
+            <v>51.521377209999997</v>
+          </cell>
+          <cell r="B166">
+            <v>-0.15944484410000001</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="A167">
+            <v>51.521377209999997</v>
+          </cell>
+          <cell r="B167">
+            <v>-0.15944484410000001</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="A168">
+            <v>51.521476239999998</v>
+          </cell>
+          <cell r="B168">
+            <v>-0.15947245239999999</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="A169">
+            <v>51.521799059999999</v>
+          </cell>
+          <cell r="B169">
+            <v>-0.15961511749999999</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="A170">
+            <v>51.522274260000003</v>
+          </cell>
+          <cell r="B170">
+            <v>-0.1574219127</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="A171">
+            <v>51.522329759999998</v>
+          </cell>
+          <cell r="B171">
+            <v>-0.15717396550000001</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="A172">
+            <v>51.522506139999997</v>
+          </cell>
+          <cell r="B172">
+            <v>-0.15626751850000001</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="A173">
+            <v>51.522756680000001</v>
+          </cell>
+          <cell r="B173">
+            <v>-0.1545579477</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="A174">
+            <v>51.522850990000002</v>
+          </cell>
+          <cell r="B174">
+            <v>-0.1540343713</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="A175">
+            <v>51.523226430000001</v>
+          </cell>
+          <cell r="B175">
+            <v>-0.15197857140000001</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="A176">
+            <v>51.523290410000001</v>
+          </cell>
+          <cell r="B176">
+            <v>-0.1516104559</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="A177">
+            <v>51.523359900000003</v>
+          </cell>
+          <cell r="B177">
+            <v>-0.15017037699999999</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="A178">
+            <v>51.528290210000002</v>
+          </cell>
+          <cell r="B178">
+            <v>-0.18110275270000001</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="A179">
+            <v>51.523809739999997</v>
+          </cell>
+          <cell r="B179">
+            <v>-0.14638370170000001</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="A180">
+            <v>51.510371579999997</v>
+          </cell>
+          <cell r="B180">
+            <v>-0.1491737366</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="A181">
+            <v>51.523860740000003</v>
+          </cell>
+          <cell r="B181">
+            <v>-0.14610650980000001</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="A182">
+            <v>51.523898559999999</v>
+          </cell>
+          <cell r="B182">
+            <v>-0.14596122989999999</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="A183">
+            <v>51.523938780000002</v>
+          </cell>
+          <cell r="B183">
+            <v>-0.14579532989999999</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="A184">
+            <v>51.523967370000001</v>
+          </cell>
+          <cell r="B184">
+            <v>-0.14566135620000001</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="A185">
+            <v>51.524137779999997</v>
+          </cell>
+          <cell r="B185">
+            <v>-0.1447828062</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="A186">
+            <v>51.524155319999998</v>
+          </cell>
+          <cell r="B186">
+            <v>-0.144394573</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="A187">
+            <v>51.524080779999998</v>
+          </cell>
+          <cell r="B187">
+            <v>-0.14206313779999999</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="A188">
+            <v>51.524655340000002</v>
+          </cell>
+          <cell r="B188">
+            <v>-0.13952230290000001</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="A189">
+            <v>51.524948629999997</v>
+          </cell>
+          <cell r="B189">
+            <v>-0.1386253214</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="A190">
+            <v>51.525141470000001</v>
+          </cell>
+          <cell r="B190">
+            <v>-0.13770140559999999</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="A191">
+            <v>51.525562739999998</v>
+          </cell>
+          <cell r="B191">
+            <v>-0.13603358970000001</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="A192">
+            <v>51.525790600000001</v>
+          </cell>
+          <cell r="B192">
+            <v>-0.13494283609999999</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="A193">
+            <v>51.527188959999997</v>
+          </cell>
+          <cell r="B193">
+            <v>-0.13130907659999999</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="A194">
+            <v>51.526043280000003</v>
+          </cell>
+          <cell r="B194">
+            <v>-0.13410749890000001</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="A195">
+            <v>51.524659020000001</v>
+          </cell>
+          <cell r="B195">
+            <v>-0.12767314909999999</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="A196">
+            <v>51.526116049999999</v>
+          </cell>
+          <cell r="B196">
+            <v>-0.1339321872</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="A197">
+            <v>51.52621491</v>
+          </cell>
+          <cell r="B197">
+            <v>-0.13394297560000001</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="A198">
+            <v>51.526335410000002</v>
+          </cell>
+          <cell r="B198">
+            <v>-0.13381189299999999</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="A199">
+            <v>51.526744180000001</v>
+          </cell>
+          <cell r="B199">
+            <v>-0.13267720320000001</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="A200">
+            <v>51.527188959999997</v>
+          </cell>
+          <cell r="B200">
+            <v>-0.13130907659999999</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="A201">
+            <v>51.527581900000001</v>
+          </cell>
+          <cell r="B201">
+            <v>-0.1302148756</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="A202">
+            <v>51.527722509999997</v>
+          </cell>
+          <cell r="B202">
+            <v>-0.12986486059999999</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="A203">
+            <v>51.528048120000001</v>
+          </cell>
+          <cell r="B203">
+            <v>-0.12887806409999999</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="A204">
+            <v>51.528130160000003</v>
+          </cell>
+          <cell r="B204">
+            <v>-0.12861910779999999</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="A205">
+            <v>51.528218680000002</v>
+          </cell>
+          <cell r="B205">
+            <v>-0.12826972389999999</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="A206">
+            <v>51.528376680000001</v>
+          </cell>
+          <cell r="B206">
+            <v>-0.12758298130000001</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="A207">
+            <v>51.528505160000002</v>
+          </cell>
+          <cell r="B207">
+            <v>-0.12734465070000001</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="A208">
+            <v>51.528778549999998</v>
+          </cell>
+          <cell r="B208">
+            <v>-0.12695981009999999</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="A209">
+            <v>51.528949580000003</v>
+          </cell>
+          <cell r="B209">
+            <v>-0.1266085753</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="A210">
+            <v>51.528949580000003</v>
+          </cell>
+          <cell r="B210">
+            <v>-0.1266085753</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="A211">
+            <v>51.529901250000002</v>
+          </cell>
+          <cell r="B211">
+            <v>-0.1244298735</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="A212">
+            <v>51.530262759999999</v>
+          </cell>
+          <cell r="B212">
+            <v>-0.1236149695</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="A213">
+            <v>51.530476450000002</v>
+          </cell>
+          <cell r="B213">
+            <v>-0.12306053679999999</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="A214">
+            <v>51.530585549999998</v>
+          </cell>
+          <cell r="B214">
+            <v>-0.12274012419999999</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="A215">
+            <v>51.5306736</v>
+          </cell>
+          <cell r="B215">
+            <v>-0.122472383</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="A216">
+            <v>51.5306736</v>
+          </cell>
+          <cell r="B216">
+            <v>-0.122472383</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="A217">
+            <v>51.530874390000001</v>
+          </cell>
+          <cell r="B217">
+            <v>-0.120487342</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="A218">
+            <v>51.530899460000001</v>
+          </cell>
+          <cell r="B218">
+            <v>-0.1196780087</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="A219">
+            <v>51.53087171</v>
+          </cell>
+          <cell r="B219">
+            <v>-0.1194381072</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="A220">
+            <v>51.530822149999999</v>
+          </cell>
+          <cell r="B220">
+            <v>-0.11919979579999999</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="A221">
+            <v>51.530230979999999</v>
+          </cell>
+          <cell r="B221">
+            <v>-0.1168152405</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="A222">
+            <v>51.530106580000002</v>
+          </cell>
+          <cell r="B222">
+            <v>-0.11635410190000001</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="A223">
+            <v>51.530077249999998</v>
+          </cell>
+          <cell r="B223">
+            <v>-0.1162734185</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="A224">
+            <v>51.530077249999998</v>
+          </cell>
+          <cell r="B224">
+            <v>-0.1162734185</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="A225">
+            <v>51.53001063</v>
+          </cell>
+          <cell r="B225">
+            <v>-0.1160725454</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="A226">
+            <v>51.529962339999997</v>
+          </cell>
+          <cell r="B226">
+            <v>-0.11598191839999999</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="A227">
+            <v>51.529758579999999</v>
+          </cell>
+          <cell r="B227">
+            <v>-0.1155612114</v>
           </cell>
         </row>
       </sheetData>
@@ -3430,1824 +6076,1616 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="data_points"/>
+      <sheetName val="output"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="1">
           <cell r="A1">
-            <v>51.498714929999998</v>
+            <v>51.498699999999999</v>
           </cell>
           <cell r="B1">
-            <v>-0.16011779910000001</v>
+            <v>-0.16011800000000001</v>
           </cell>
         </row>
         <row r="2">
           <cell r="A2">
-            <v>51.498405859999998</v>
+            <v>51.497999999999998</v>
           </cell>
           <cell r="B2">
-            <v>-0.16040688240000001</v>
+            <v>-0.16053700000000001</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3">
-            <v>51.49820502</v>
+            <v>51.497700000000002</v>
           </cell>
           <cell r="B3">
-            <v>-0.16062694280000001</v>
+            <v>-0.16045799999999999</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4">
-            <v>51.498041550000003</v>
+            <v>51.497300000000003</v>
           </cell>
           <cell r="B4">
-            <v>-0.16053670340000001</v>
+            <v>-0.16068199999999999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5">
-            <v>51.497699480000001</v>
+            <v>51.497100000000003</v>
           </cell>
           <cell r="B5">
-            <v>-0.16045812170000001</v>
+            <v>-0.16079099999999999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6">
-            <v>51.49733998</v>
+            <v>51.497</v>
           </cell>
           <cell r="B6">
-            <v>-0.1606820971</v>
+            <v>-0.16075800000000001</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>51.49709369</v>
+            <v>51.497</v>
           </cell>
           <cell r="B7">
-            <v>-0.160790974</v>
+            <v>-0.160744</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8">
-            <v>51.497047270000003</v>
+            <v>51.497</v>
           </cell>
           <cell r="B8">
-            <v>-0.16075816570000001</v>
+            <v>-0.16115299999999999</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>51.49703908</v>
+            <v>51.496899999999997</v>
           </cell>
           <cell r="B9">
-            <v>-0.16074381870000001</v>
+            <v>-0.16181699999999999</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>51.496962230000001</v>
+            <v>51.4968</v>
           </cell>
           <cell r="B10">
-            <v>-0.16115347620000001</v>
+            <v>-0.162546</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>51.496898190000003</v>
+            <v>51.496699999999997</v>
           </cell>
           <cell r="B11">
-            <v>-0.1618168015</v>
+            <v>-0.16298499999999999</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>51.496832019999999</v>
+            <v>51.496699999999997</v>
           </cell>
           <cell r="B12">
-            <v>-0.16254633569999999</v>
+            <v>-0.16303400000000001</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>51.496701199999997</v>
+            <v>51.496499999999997</v>
           </cell>
           <cell r="B13">
-            <v>-0.16298497179999999</v>
+            <v>-0.163218</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>51.496664330000002</v>
+            <v>51.496200000000002</v>
           </cell>
           <cell r="B14">
-            <v>-0.16303419599999999</v>
+            <v>-0.16337099999999999</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>51.496456199999997</v>
+            <v>51.496099999999998</v>
           </cell>
           <cell r="B15">
-            <v>-0.1632178296</v>
+            <v>-0.162998</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>51.496238339999998</v>
+            <v>51.495800000000003</v>
           </cell>
           <cell r="B16">
-            <v>-0.1633707808</v>
+            <v>-0.16278599999999999</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>51.496085489999999</v>
+            <v>51.495100000000001</v>
           </cell>
           <cell r="B17">
-            <v>-0.16299822359999999</v>
+            <v>-0.162686</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>51.495775950000002</v>
+            <v>51.494900000000001</v>
           </cell>
           <cell r="B18">
-            <v>-0.1627860142</v>
+            <v>-0.162775</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>51.495125119999997</v>
+            <v>51.494999999999997</v>
           </cell>
           <cell r="B19">
-            <v>-0.16268601099999999</v>
+            <v>-0.16314799999999999</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>51.4948725</v>
+            <v>51.495399999999997</v>
           </cell>
           <cell r="B20">
-            <v>-0.16277497490000001</v>
+            <v>-0.16356200000000001</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>51.495021059999999</v>
+            <v>51.495699999999999</v>
           </cell>
           <cell r="B21">
-            <v>-0.1631475242</v>
+            <v>-0.163741</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>51.495363759999996</v>
+            <v>51.495899999999999</v>
           </cell>
           <cell r="B22">
-            <v>-0.163561765</v>
+            <v>-0.163746</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>51.495707289999999</v>
+            <v>51.495899999999999</v>
           </cell>
           <cell r="B23">
-            <v>-0.16374090220000001</v>
+            <v>-0.163746</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>51.49588258</v>
+            <v>51.495899999999999</v>
           </cell>
           <cell r="B24">
-            <v>-0.16374607150000001</v>
+            <v>-0.163746</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>51.49588258</v>
+            <v>51.495899999999999</v>
           </cell>
           <cell r="B25">
-            <v>-0.16374607129999999</v>
+            <v>-0.163746</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>51.49588258</v>
+            <v>51.495899999999999</v>
           </cell>
           <cell r="B26">
-            <v>-0.16374607129999999</v>
+            <v>-0.163746</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>51.49588258</v>
+            <v>51.495899999999999</v>
           </cell>
           <cell r="B27">
-            <v>-0.16374607129999999</v>
+            <v>-0.163746</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>51.49588258</v>
+            <v>51.495899999999999</v>
           </cell>
           <cell r="B28">
-            <v>-0.16374607129999999</v>
+            <v>-0.163746</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>51.49588258</v>
+            <v>51.495899999999999</v>
           </cell>
           <cell r="B29">
-            <v>-0.16374607129999999</v>
+            <v>-0.163746</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>51.49588258</v>
+            <v>51.495899999999999</v>
           </cell>
           <cell r="B30">
-            <v>-0.16374607129999999</v>
+            <v>-0.163746</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>51.49588258</v>
+            <v>51.495899999999999</v>
           </cell>
           <cell r="B31">
-            <v>-0.16374607129999999</v>
+            <v>-0.163746</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>51.49588258</v>
+            <v>51.495899999999999</v>
           </cell>
           <cell r="B32">
-            <v>-0.16374607129999999</v>
+            <v>-0.163746</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>51.49588258</v>
+            <v>51.495899999999999</v>
           </cell>
           <cell r="B33">
-            <v>-0.16374607129999999</v>
+            <v>-0.163746</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>51.49588258</v>
+            <v>51.495899999999999</v>
           </cell>
           <cell r="B34">
-            <v>-0.16374607129999999</v>
+            <v>-0.163746</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>51.49588258</v>
+            <v>51.495899999999999</v>
           </cell>
           <cell r="B35">
-            <v>-0.16374607129999999</v>
+            <v>-0.163746</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>51.49588258</v>
+            <v>51.495899999999999</v>
           </cell>
           <cell r="B36">
-            <v>-0.16374607129999999</v>
+            <v>-0.163746</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>51.49588258</v>
+            <v>51.495899999999999</v>
           </cell>
           <cell r="B37">
-            <v>-0.16374607129999999</v>
+            <v>-0.163746</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>51.49588258</v>
+            <v>51.495899999999999</v>
           </cell>
           <cell r="B38">
-            <v>-0.16374607129999999</v>
+            <v>-0.163746</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>51.49588258</v>
+            <v>51.495899999999999</v>
           </cell>
           <cell r="B39">
-            <v>-0.16374607129999999</v>
+            <v>-0.163746</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>51.49588258</v>
+            <v>51.495899999999999</v>
           </cell>
           <cell r="B40">
-            <v>-0.16374607129999999</v>
+            <v>-0.163746</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>51.49588258</v>
+            <v>51.495899999999999</v>
           </cell>
           <cell r="B41">
-            <v>-0.16374607129999999</v>
+            <v>-0.163746</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>51.49588258</v>
+            <v>51.495899999999999</v>
           </cell>
           <cell r="B42">
-            <v>-0.16374607129999999</v>
+            <v>-0.163746</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>51.49588258</v>
+            <v>51.495899999999999</v>
           </cell>
           <cell r="B43">
-            <v>-0.16374607129999999</v>
+            <v>-0.163746</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>51.49588258</v>
+            <v>51.495899999999999</v>
           </cell>
           <cell r="B44">
-            <v>-0.16374607129999999</v>
+            <v>-0.163746</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>51.49588258</v>
+            <v>51.495899999999999</v>
           </cell>
           <cell r="B45">
-            <v>-0.16374607129999999</v>
+            <v>-0.163746</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>51.49588258</v>
+            <v>51.495899999999999</v>
           </cell>
           <cell r="B46">
-            <v>-0.16374607129999999</v>
+            <v>-0.163746</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>51.49588258</v>
+            <v>51.495899999999999</v>
           </cell>
           <cell r="B47">
-            <v>-0.16374607129999999</v>
+            <v>-0.163746</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>51.49588258</v>
+            <v>51.496000000000002</v>
           </cell>
           <cell r="B48">
-            <v>-0.16374607129999999</v>
+            <v>-0.16374</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>51.49588258</v>
+            <v>51.496299999999998</v>
           </cell>
           <cell r="B49">
-            <v>-0.16374607129999999</v>
+            <v>-0.16350600000000001</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>51.496024220000002</v>
+            <v>51.496600000000001</v>
           </cell>
           <cell r="B50">
-            <v>-0.16374018360000001</v>
+            <v>-0.163156</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>51.496279149999999</v>
+            <v>51.496699999999997</v>
           </cell>
           <cell r="B51">
-            <v>-0.16350567290000001</v>
+            <v>-0.162941</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>51.496565240000002</v>
+            <v>51.496699999999997</v>
           </cell>
           <cell r="B52">
-            <v>-0.16315570239999999</v>
+            <v>-0.162934</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>51.496739759999997</v>
+            <v>51.4968</v>
           </cell>
           <cell r="B53">
-            <v>-0.162940841</v>
+            <v>-0.16259799999999999</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>51.496744870000001</v>
+            <v>51.496899999999997</v>
           </cell>
           <cell r="B54">
-            <v>-0.16293423639999999</v>
+            <v>-0.16186500000000001</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>51.49683813</v>
+            <v>51.497</v>
           </cell>
           <cell r="B55">
-            <v>-0.16259841150000001</v>
+            <v>-0.16094600000000001</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>51.496886889999999</v>
+            <v>51.497199999999999</v>
           </cell>
           <cell r="B56">
-            <v>-0.16186532149999999</v>
+            <v>-0.159334</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>51.496963149999999</v>
+            <v>51.497199999999999</v>
           </cell>
           <cell r="B57">
-            <v>-0.16094624169999999</v>
+            <v>-0.15916</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>51.497155859999999</v>
+            <v>51.497199999999999</v>
           </cell>
           <cell r="B58">
-            <v>-0.1593338762</v>
+            <v>-0.15916</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>51.497191049999998</v>
+            <v>51.497199999999999</v>
           </cell>
           <cell r="B59">
-            <v>-0.1591598209</v>
+            <v>-0.15916</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>51.497191049999998</v>
+            <v>51.497199999999999</v>
           </cell>
           <cell r="B60">
-            <v>-0.1591598209</v>
+            <v>-0.15878</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>51.497191049999998</v>
+            <v>51.497300000000003</v>
           </cell>
           <cell r="B61">
-            <v>-0.1591598209</v>
+            <v>-0.158167</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>51.497229830000002</v>
+            <v>51.497399999999999</v>
           </cell>
           <cell r="B62">
-            <v>-0.1587803518</v>
+            <v>-0.157608</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>51.497288650000002</v>
+            <v>51.497399999999999</v>
           </cell>
           <cell r="B63">
-            <v>-0.1581672952</v>
+            <v>-0.15735299999999999</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>51.497360790000002</v>
+            <v>51.497399999999999</v>
           </cell>
           <cell r="B64">
-            <v>-0.15760849809999999</v>
+            <v>-0.156779</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>51.49738859</v>
+            <v>51.497500000000002</v>
           </cell>
           <cell r="B65">
-            <v>-0.1573533235</v>
+            <v>-0.15602099999999999</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>51.497428149999998</v>
+            <v>51.497500000000002</v>
           </cell>
           <cell r="B66">
-            <v>-0.1567785622</v>
+            <v>-0.155422</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>51.497483750000001</v>
+            <v>51.497599999999998</v>
           </cell>
           <cell r="B67">
-            <v>-0.1560206499</v>
+            <v>-0.154671</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>51.497488820000001</v>
+            <v>51.497700000000002</v>
           </cell>
           <cell r="B68">
-            <v>-0.1554224532</v>
+            <v>-0.15434400000000001</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>51.497567429999997</v>
+            <v>51.497799999999998</v>
           </cell>
           <cell r="B69">
-            <v>-0.15467130940000001</v>
+            <v>-0.154304</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>51.497725080000002</v>
+            <v>51.497799999999998</v>
           </cell>
           <cell r="B70">
-            <v>-0.15434417459999999</v>
+            <v>-0.15421499999999999</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>51.49775047</v>
+            <v>51.498199999999997</v>
           </cell>
           <cell r="B71">
-            <v>-0.15430388759999999</v>
+            <v>-0.15379899999999999</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>51.497809760000003</v>
+            <v>51.499099999999999</v>
           </cell>
           <cell r="B72">
-            <v>-0.15421545689999999</v>
+            <v>-0.15482399999999999</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>51.498000060000003</v>
+            <v>51.499899999999997</v>
           </cell>
           <cell r="B73">
-            <v>-0.15395552009999999</v>
+            <v>-0.154114</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>51.498151360000001</v>
+            <v>51.500100000000003</v>
           </cell>
           <cell r="B74">
-            <v>-0.15379850610000001</v>
+            <v>-0.15355099999999999</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>51.511386700000003</v>
+            <v>51.5</v>
           </cell>
           <cell r="B75">
-            <v>-0.17560958860000001</v>
+            <v>-0.15298500000000001</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>51.498804630000002</v>
+            <v>51.499699999999997</v>
           </cell>
           <cell r="B76">
-            <v>-0.15455034670000001</v>
+            <v>-0.15229799999999999</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>51.499081250000003</v>
+            <v>51.499400000000001</v>
           </cell>
           <cell r="B77">
-            <v>-0.15482374469999999</v>
+            <v>-0.15182100000000001</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>51.499441040000001</v>
+            <v>51.499600000000001</v>
           </cell>
           <cell r="B78">
-            <v>-0.1547229289</v>
+            <v>-0.15140500000000001</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>51.499858349999997</v>
+            <v>51.499899999999997</v>
           </cell>
           <cell r="B79">
-            <v>-0.15411358720000001</v>
+            <v>-0.15102499999999999</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>51.50009111</v>
+            <v>51.5</v>
           </cell>
           <cell r="B80">
-            <v>-0.15355052559999999</v>
+            <v>-0.150843</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>51.500035560000001</v>
+            <v>51.500100000000003</v>
           </cell>
           <cell r="B81">
-            <v>-0.15298529929999999</v>
+            <v>-0.150641</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>51.499660210000002</v>
+            <v>51.500100000000003</v>
           </cell>
           <cell r="B82">
-            <v>-0.152298355</v>
+            <v>-0.15049899999999999</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>51.499359839999997</v>
+            <v>51.500100000000003</v>
           </cell>
           <cell r="B83">
-            <v>-0.15182118759999999</v>
+            <v>-0.15045</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>51.49957508</v>
+            <v>51.5002</v>
           </cell>
           <cell r="B84">
-            <v>-0.15140472739999999</v>
+            <v>-0.15043500000000001</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>51.499853010000002</v>
+            <v>51.5002</v>
           </cell>
           <cell r="B85">
-            <v>-0.15102502379999999</v>
+            <v>-0.150396</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>51.499968369999998</v>
+            <v>51.500300000000003</v>
           </cell>
           <cell r="B86">
-            <v>-0.15084293069999999</v>
+            <v>-0.15030399999999999</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>51.500090870000001</v>
+            <v>51.500599999999999</v>
           </cell>
           <cell r="B87">
-            <v>-0.15064067649999999</v>
+            <v>-0.14987900000000001</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>51.500139009999998</v>
+            <v>51.500799999999998</v>
           </cell>
           <cell r="B88">
-            <v>-0.15049859199999999</v>
+            <v>-0.14999299999999999</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>51.500148289999998</v>
+            <v>51.501100000000001</v>
           </cell>
           <cell r="B89">
-            <v>-0.15045036079999999</v>
+            <v>-0.15069299999999999</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>51.500162330000002</v>
+            <v>51.5015</v>
           </cell>
           <cell r="B90">
-            <v>-0.15043493799999999</v>
+            <v>-0.15130099999999999</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>51.500190289999999</v>
+            <v>51.5017</v>
           </cell>
           <cell r="B91">
-            <v>-0.1503960268</v>
+            <v>-0.15155399999999999</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>51.500190289999999</v>
+            <v>51.5017</v>
           </cell>
           <cell r="B92">
-            <v>-0.1503960268</v>
+            <v>-0.15156500000000001</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>51.511520249999997</v>
+            <v>51.5017</v>
           </cell>
           <cell r="B93">
-            <v>-0.17449378970000001</v>
+            <v>-0.15156700000000001</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>51.500258029999998</v>
+            <v>51.501800000000003</v>
           </cell>
           <cell r="B94">
-            <v>-0.15035591640000001</v>
+            <v>-0.15156600000000001</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>51.500303690000003</v>
+            <v>51.501800000000003</v>
           </cell>
           <cell r="B95">
-            <v>-0.15030449779999999</v>
+            <v>-0.15156600000000001</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>51.500476919999997</v>
+            <v>51.502000000000002</v>
           </cell>
           <cell r="B96">
-            <v>-0.15008530540000001</v>
+            <v>-0.15182899999999999</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>51.500625280000001</v>
+            <v>51.502499999999998</v>
           </cell>
           <cell r="B97">
-            <v>-0.1498789432</v>
+            <v>-0.15210399999999999</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>51.500784719999999</v>
+            <v>51.502600000000001</v>
           </cell>
           <cell r="B98">
-            <v>-0.14999280400000001</v>
+            <v>-0.15221799999999999</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>51.501139600000002</v>
+            <v>51.502699999999997</v>
           </cell>
           <cell r="B99">
-            <v>-0.1506926458</v>
+            <v>-0.15223600000000001</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>51.501546359999999</v>
+            <v>51.502699999999997</v>
           </cell>
           <cell r="B100">
-            <v>-0.1513014885</v>
+            <v>-0.15224799999999999</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>51.501736800000003</v>
+            <v>51.502899999999997</v>
           </cell>
           <cell r="B101">
-            <v>-0.15155444339999999</v>
+            <v>-0.15235299999999999</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>51.501744670000001</v>
+            <v>51.503100000000003</v>
           </cell>
           <cell r="B102">
-            <v>-0.15156534739999999</v>
+            <v>-0.15204899999999999</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>51.501746850000004</v>
+            <v>51.5032</v>
           </cell>
           <cell r="B103">
-            <v>-0.15156670059999999</v>
+            <v>-0.15157200000000001</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>51.50175754</v>
+            <v>51.503399999999999</v>
           </cell>
           <cell r="B104">
-            <v>-0.15156577299999999</v>
+            <v>-0.15110499999999999</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>51.50175754</v>
+            <v>51.503799999999998</v>
           </cell>
           <cell r="B105">
-            <v>-0.15156577299999999</v>
+            <v>-0.15123400000000001</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>51.5020375</v>
+            <v>51.504100000000001</v>
           </cell>
           <cell r="B106">
-            <v>-0.1518291547</v>
+            <v>-0.151591</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>51.502454319999998</v>
+            <v>51.504300000000001</v>
           </cell>
           <cell r="B107">
-            <v>-0.1521038794</v>
+            <v>-0.15212899999999999</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>51.502647639999999</v>
+            <v>51.5047</v>
           </cell>
           <cell r="B108">
-            <v>-0.1522178189</v>
+            <v>-0.15205399999999999</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>51.502687709999996</v>
+            <v>51.505400000000002</v>
           </cell>
           <cell r="B109">
-            <v>-0.15223618229999999</v>
+            <v>-0.15190500000000001</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>51.502706009999997</v>
+            <v>51.505899999999997</v>
           </cell>
           <cell r="B110">
-            <v>-0.15224832620000001</v>
+            <v>-0.152032</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>51.502903379999999</v>
+            <v>51.506700000000002</v>
           </cell>
           <cell r="B111">
-            <v>-0.15235266450000001</v>
+            <v>-0.152693</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>51.503127839999998</v>
+            <v>51.507300000000001</v>
           </cell>
           <cell r="B112">
-            <v>-0.1520493295</v>
+            <v>-0.153449</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>51.503219780000002</v>
+            <v>51.507899999999999</v>
           </cell>
           <cell r="B113">
-            <v>-0.15157193369999999</v>
+            <v>-0.15416299999999999</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>51.503424510000002</v>
+            <v>51.508400000000002</v>
           </cell>
           <cell r="B114">
-            <v>-0.15110461989999999</v>
+            <v>-0.15471299999999999</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>51.503826109999999</v>
+            <v>51.508800000000001</v>
           </cell>
           <cell r="B115">
-            <v>-0.15123364380000001</v>
+            <v>-0.15526300000000001</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
-            <v>51.504077330000001</v>
+            <v>51.509</v>
           </cell>
           <cell r="B116">
-            <v>-0.15159125979999999</v>
+            <v>-0.15548799999999999</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117">
-            <v>51.50429218</v>
+            <v>51.509099999999997</v>
           </cell>
           <cell r="B117">
-            <v>-0.15212866280000001</v>
+            <v>-0.15561700000000001</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118">
-            <v>51.504729949999998</v>
+            <v>51.509300000000003</v>
           </cell>
           <cell r="B118">
-            <v>-0.15205350100000001</v>
+            <v>-0.155885</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119">
-            <v>51.505370900000003</v>
+            <v>51.509500000000003</v>
           </cell>
           <cell r="B119">
-            <v>-0.15190461650000001</v>
+            <v>-0.156227</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120">
-            <v>51.50585762</v>
+            <v>51.509700000000002</v>
           </cell>
           <cell r="B120">
-            <v>-0.1520323271</v>
+            <v>-0.15653700000000001</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121">
-            <v>51.506660979999999</v>
+            <v>51.51</v>
           </cell>
           <cell r="B121">
-            <v>-0.15269343769999999</v>
+            <v>-0.15684500000000001</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122">
-            <v>51.50732558</v>
+            <v>51.510199999999998</v>
           </cell>
           <cell r="B122">
-            <v>-0.15344857370000001</v>
+            <v>-0.15706100000000001</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123">
-            <v>51.507947119999997</v>
+            <v>51.510399999999997</v>
           </cell>
           <cell r="B123">
-            <v>-0.15416305250000001</v>
+            <v>-0.15723500000000001</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124">
-            <v>51.508399740000002</v>
+            <v>51.510800000000003</v>
           </cell>
           <cell r="B124">
-            <v>-0.15471346659999999</v>
+            <v>-0.15754399999999999</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125">
-            <v>51.508825440000003</v>
+            <v>51.511299999999999</v>
           </cell>
           <cell r="B125">
-            <v>-0.15526277220000001</v>
+            <v>-0.155916</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126">
-            <v>51.509001410000003</v>
+            <v>51.511600000000001</v>
           </cell>
           <cell r="B126">
-            <v>-0.1554880484</v>
+            <v>-0.154886</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127">
-            <v>51.509090460000003</v>
+            <v>51.511699999999998</v>
           </cell>
           <cell r="B127">
-            <v>-0.15561689649999999</v>
+            <v>-0.15498799999999999</v>
           </cell>
         </row>
         <row r="128">
           <cell r="A128">
-            <v>51.50926029</v>
+            <v>51.513100000000001</v>
           </cell>
           <cell r="B128">
-            <v>-0.15588486069999999</v>
+            <v>-0.15573200000000001</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129">
-            <v>51.509525400000001</v>
+            <v>51.513599999999997</v>
           </cell>
           <cell r="B129">
-            <v>-0.1562271777</v>
+            <v>-0.15607699999999999</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130">
-            <v>51.509745500000001</v>
+            <v>51.5137</v>
           </cell>
           <cell r="B130">
-            <v>-0.1565372817</v>
+            <v>-0.156079</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131">
-            <v>51.510006939999997</v>
+            <v>51.514200000000002</v>
           </cell>
           <cell r="B131">
-            <v>-0.15684457939999999</v>
+            <v>-0.15606500000000001</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132">
-            <v>51.510216589999999</v>
+            <v>51.514600000000002</v>
           </cell>
           <cell r="B132">
-            <v>-0.1570609707</v>
+            <v>-0.15632599999999999</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133">
-            <v>51.510267110000001</v>
+            <v>51.514899999999997</v>
           </cell>
           <cell r="B133">
-            <v>-0.1571154642</v>
+            <v>-0.15647800000000001</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134">
-            <v>51.510369140000002</v>
+            <v>51.515000000000001</v>
           </cell>
           <cell r="B134">
-            <v>-0.15723469840000001</v>
+            <v>-0.15648699999999999</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135">
-            <v>51.511306580000003</v>
+            <v>51.516100000000002</v>
           </cell>
           <cell r="B135">
-            <v>-0.17294883729999999</v>
+            <v>-0.15704599999999999</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136">
-            <v>51.510751710000001</v>
+            <v>51.517099999999999</v>
           </cell>
           <cell r="B136">
-            <v>-0.1575284699</v>
+            <v>-0.157556</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137">
-            <v>51.510780050000001</v>
+            <v>51.517299999999999</v>
           </cell>
           <cell r="B137">
-            <v>-0.1575436076</v>
+            <v>-0.15764500000000001</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138">
-            <v>51.510809190000003</v>
+            <v>51.518700000000003</v>
           </cell>
           <cell r="B138">
-            <v>-0.15754496500000001</v>
+            <v>-0.15823400000000001</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139">
-            <v>51.511258439999999</v>
+            <v>51.518900000000002</v>
           </cell>
           <cell r="B139">
-            <v>-0.15591599079999999</v>
+            <v>-0.158331</v>
           </cell>
         </row>
         <row r="140">
           <cell r="A140">
-            <v>51.511560510000002</v>
+            <v>51.518900000000002</v>
           </cell>
           <cell r="B140">
-            <v>-0.15488621159999999</v>
+            <v>-0.158331</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141">
-            <v>51.511721729999998</v>
+            <v>51.518900000000002</v>
           </cell>
           <cell r="B141">
-            <v>-0.1549884144</v>
+            <v>-0.158331</v>
           </cell>
         </row>
         <row r="142">
           <cell r="A142">
-            <v>51.513067929999998</v>
+            <v>51.520699999999998</v>
           </cell>
           <cell r="B142">
-            <v>-0.15573168530000001</v>
+            <v>-0.159135</v>
           </cell>
         </row>
         <row r="143">
           <cell r="A143">
-            <v>51.513589830000001</v>
+            <v>51.521000000000001</v>
           </cell>
           <cell r="B143">
-            <v>-0.1560767018</v>
+            <v>-0.159272</v>
           </cell>
         </row>
         <row r="144">
           <cell r="A144">
-            <v>51.51373504</v>
+            <v>51.521099999999997</v>
           </cell>
           <cell r="B144">
-            <v>-0.156079042</v>
+            <v>-0.159327</v>
           </cell>
         </row>
         <row r="145">
           <cell r="A145">
-            <v>51.514246129999997</v>
+            <v>51.521099999999997</v>
           </cell>
           <cell r="B145">
-            <v>-0.1560649452</v>
+            <v>-0.159327</v>
           </cell>
         </row>
         <row r="146">
           <cell r="A146">
-            <v>51.514637819999997</v>
+            <v>51.521099999999997</v>
           </cell>
           <cell r="B146">
-            <v>-0.15632649670000001</v>
+            <v>-0.159327</v>
           </cell>
         </row>
         <row r="147">
           <cell r="A147">
-            <v>51.514880699999999</v>
+            <v>51.521099999999997</v>
           </cell>
           <cell r="B147">
-            <v>-0.1564782663</v>
+            <v>-0.159327</v>
           </cell>
         </row>
         <row r="148">
           <cell r="A148">
-            <v>51.514977399999999</v>
+            <v>51.521099999999997</v>
           </cell>
           <cell r="B148">
-            <v>-0.15648698890000001</v>
+            <v>-0.159327</v>
           </cell>
         </row>
         <row r="149">
           <cell r="A149">
-            <v>51.51605429</v>
+            <v>51.5214</v>
           </cell>
           <cell r="B149">
-            <v>-0.15704624310000001</v>
+            <v>-0.159445</v>
           </cell>
         </row>
         <row r="150">
           <cell r="A150">
-            <v>51.517116610000002</v>
+            <v>51.5214</v>
           </cell>
           <cell r="B150">
-            <v>-0.15755563829999999</v>
+            <v>-0.159445</v>
           </cell>
         </row>
         <row r="151">
           <cell r="A151">
-            <v>51.517327139999999</v>
+            <v>51.5214</v>
           </cell>
           <cell r="B151">
-            <v>-0.1576452287</v>
+            <v>-0.159445</v>
           </cell>
         </row>
         <row r="152">
           <cell r="A152">
-            <v>51.518678970000003</v>
+            <v>51.5214</v>
           </cell>
           <cell r="B152">
-            <v>-0.15823449489999999</v>
+            <v>-0.159445</v>
           </cell>
         </row>
         <row r="153">
           <cell r="A153">
-            <v>51.518888500000003</v>
+            <v>51.5214</v>
           </cell>
           <cell r="B153">
-            <v>-0.15833071039999999</v>
+            <v>-0.159445</v>
           </cell>
         </row>
         <row r="154">
           <cell r="A154">
-            <v>51.518888500000003</v>
+            <v>51.521500000000003</v>
           </cell>
           <cell r="B154">
-            <v>-0.15833071039999999</v>
+            <v>-0.159472</v>
           </cell>
         </row>
         <row r="155">
           <cell r="A155">
-            <v>51.518888500000003</v>
+            <v>51.521799999999999</v>
           </cell>
           <cell r="B155">
-            <v>-0.15833071039999999</v>
+            <v>-0.15961500000000001</v>
           </cell>
         </row>
         <row r="156">
           <cell r="A156">
-            <v>51.520727020000002</v>
+            <v>51.522300000000001</v>
           </cell>
           <cell r="B156">
-            <v>-0.15913501469999999</v>
+            <v>-0.15742200000000001</v>
           </cell>
         </row>
         <row r="157">
           <cell r="A157">
-            <v>51.521030199999998</v>
+            <v>51.522300000000001</v>
           </cell>
           <cell r="B157">
-            <v>-0.15927217439999999</v>
+            <v>-0.15717400000000001</v>
           </cell>
         </row>
         <row r="158">
           <cell r="A158">
-            <v>51.521121129999997</v>
+            <v>51.522500000000001</v>
           </cell>
           <cell r="B158">
-            <v>-0.1593270695</v>
+            <v>-0.15626799999999999</v>
           </cell>
         </row>
         <row r="159">
           <cell r="A159">
-            <v>51.521121129999997</v>
+            <v>51.522799999999997</v>
           </cell>
           <cell r="B159">
-            <v>-0.1593270695</v>
+            <v>-0.154558</v>
           </cell>
         </row>
         <row r="160">
           <cell r="A160">
-            <v>51.521121129999997</v>
+            <v>51.5229</v>
           </cell>
           <cell r="B160">
-            <v>-0.1593270695</v>
+            <v>-0.154034</v>
           </cell>
         </row>
         <row r="161">
           <cell r="A161">
-            <v>51.521121129999997</v>
+            <v>51.523200000000003</v>
           </cell>
           <cell r="B161">
-            <v>-0.1593270695</v>
+            <v>-0.151979</v>
           </cell>
         </row>
         <row r="162">
           <cell r="A162">
-            <v>51.521121129999997</v>
+            <v>51.523400000000002</v>
           </cell>
           <cell r="B162">
-            <v>-0.1593270695</v>
+            <v>-0.15017</v>
           </cell>
         </row>
         <row r="163">
           <cell r="A163">
-            <v>51.521377209999997</v>
+            <v>51.523899999999998</v>
           </cell>
           <cell r="B163">
-            <v>-0.15944484410000001</v>
+            <v>-0.14596100000000001</v>
           </cell>
         </row>
         <row r="164">
           <cell r="A164">
-            <v>51.521377209999997</v>
+            <v>51.524000000000001</v>
           </cell>
           <cell r="B164">
-            <v>-0.15944484410000001</v>
+            <v>-0.14566100000000001</v>
           </cell>
         </row>
         <row r="165">
           <cell r="A165">
-            <v>51.521377209999997</v>
+            <v>51.524099999999997</v>
           </cell>
           <cell r="B165">
-            <v>-0.15944484410000001</v>
+            <v>-0.144783</v>
           </cell>
         </row>
         <row r="166">
           <cell r="A166">
-            <v>51.521377209999997</v>
+            <v>51.5242</v>
           </cell>
           <cell r="B166">
-            <v>-0.15944484410000001</v>
+            <v>-0.144395</v>
           </cell>
         </row>
         <row r="167">
           <cell r="A167">
-            <v>51.521377209999997</v>
+            <v>51.524099999999997</v>
           </cell>
           <cell r="B167">
-            <v>-0.15944484410000001</v>
+            <v>-0.14206299999999999</v>
           </cell>
         </row>
         <row r="168">
           <cell r="A168">
-            <v>51.521476239999998</v>
+            <v>51.524700000000003</v>
           </cell>
           <cell r="B168">
-            <v>-0.15947245239999999</v>
+            <v>-0.13952200000000001</v>
           </cell>
         </row>
         <row r="169">
           <cell r="A169">
-            <v>51.521799059999999</v>
+            <v>51.524900000000002</v>
           </cell>
           <cell r="B169">
-            <v>-0.15961511749999999</v>
+            <v>-0.138625</v>
           </cell>
         </row>
         <row r="170">
           <cell r="A170">
-            <v>51.522274260000003</v>
+            <v>51.525100000000002</v>
           </cell>
           <cell r="B170">
-            <v>-0.1574219127</v>
+            <v>-0.13770099999999999</v>
           </cell>
         </row>
         <row r="171">
           <cell r="A171">
-            <v>51.522329759999998</v>
+            <v>51.525599999999997</v>
           </cell>
           <cell r="B171">
-            <v>-0.15717396550000001</v>
+            <v>-0.13603399999999999</v>
           </cell>
         </row>
         <row r="172">
           <cell r="A172">
-            <v>51.522506139999997</v>
+            <v>51.525799999999997</v>
           </cell>
           <cell r="B172">
-            <v>-0.15626751850000001</v>
+            <v>-0.13494300000000001</v>
           </cell>
         </row>
         <row r="173">
           <cell r="A173">
-            <v>51.522756680000001</v>
+            <v>51.526200000000003</v>
           </cell>
           <cell r="B173">
-            <v>-0.1545579477</v>
+            <v>-0.13394300000000001</v>
           </cell>
         </row>
         <row r="174">
           <cell r="A174">
-            <v>51.522850990000002</v>
+            <v>51.526299999999999</v>
           </cell>
           <cell r="B174">
-            <v>-0.1540343713</v>
+            <v>-0.13381199999999999</v>
           </cell>
         </row>
         <row r="175">
           <cell r="A175">
-            <v>51.523226430000001</v>
+            <v>51.526699999999998</v>
           </cell>
           <cell r="B175">
-            <v>-0.15197857140000001</v>
+            <v>-0.13267699999999999</v>
           </cell>
         </row>
         <row r="176">
           <cell r="A176">
-            <v>51.523290410000001</v>
+            <v>51.527200000000001</v>
           </cell>
           <cell r="B176">
-            <v>-0.1516104559</v>
+            <v>-0.13130900000000001</v>
           </cell>
         </row>
         <row r="177">
           <cell r="A177">
-            <v>51.523359900000003</v>
+            <v>51.5276</v>
           </cell>
           <cell r="B177">
-            <v>-0.15017037699999999</v>
+            <v>-0.130215</v>
           </cell>
         </row>
         <row r="178">
           <cell r="A178">
-            <v>51.528290210000002</v>
+            <v>51.527700000000003</v>
           </cell>
           <cell r="B178">
-            <v>-0.18110275270000001</v>
+            <v>-0.12986500000000001</v>
           </cell>
         </row>
         <row r="179">
           <cell r="A179">
-            <v>51.523809739999997</v>
+            <v>51.527999999999999</v>
           </cell>
           <cell r="B179">
-            <v>-0.14638370170000001</v>
+            <v>-0.12887799999999999</v>
           </cell>
         </row>
         <row r="180">
           <cell r="A180">
-            <v>51.510371579999997</v>
+            <v>51.528100000000002</v>
           </cell>
           <cell r="B180">
-            <v>-0.1491737366</v>
+            <v>-0.12861900000000001</v>
           </cell>
         </row>
         <row r="181">
           <cell r="A181">
-            <v>51.523860740000003</v>
+            <v>51.528199999999998</v>
           </cell>
           <cell r="B181">
-            <v>-0.14610650980000001</v>
+            <v>-0.12827</v>
           </cell>
         </row>
         <row r="182">
           <cell r="A182">
-            <v>51.523898559999999</v>
+            <v>51.528399999999998</v>
           </cell>
           <cell r="B182">
-            <v>-0.14596122989999999</v>
+            <v>-0.127583</v>
           </cell>
         </row>
         <row r="183">
           <cell r="A183">
-            <v>51.523938780000002</v>
+            <v>51.528500000000001</v>
           </cell>
           <cell r="B183">
-            <v>-0.14579532989999999</v>
+            <v>-0.12734500000000001</v>
           </cell>
         </row>
         <row r="184">
           <cell r="A184">
-            <v>51.523967370000001</v>
+            <v>51.528799999999997</v>
           </cell>
           <cell r="B184">
-            <v>-0.14566135620000001</v>
+            <v>-0.12695999999999999</v>
           </cell>
         </row>
         <row r="185">
           <cell r="A185">
-            <v>51.524137779999997</v>
+            <v>51.5289</v>
           </cell>
           <cell r="B185">
-            <v>-0.1447828062</v>
+            <v>-0.126609</v>
           </cell>
         </row>
         <row r="186">
           <cell r="A186">
-            <v>51.524155319999998</v>
+            <v>51.5289</v>
           </cell>
           <cell r="B186">
-            <v>-0.144394573</v>
+            <v>-0.126609</v>
           </cell>
         </row>
         <row r="187">
           <cell r="A187">
-            <v>51.524080779999998</v>
+            <v>51.529899999999998</v>
           </cell>
           <cell r="B187">
-            <v>-0.14206313779999999</v>
+            <v>-0.12443</v>
           </cell>
         </row>
         <row r="188">
           <cell r="A188">
-            <v>51.524655340000002</v>
+            <v>51.530299999999997</v>
           </cell>
           <cell r="B188">
-            <v>-0.13952230290000001</v>
+            <v>-0.123615</v>
           </cell>
         </row>
         <row r="189">
           <cell r="A189">
-            <v>51.524948629999997</v>
+            <v>51.530500000000004</v>
           </cell>
           <cell r="B189">
-            <v>-0.1386253214</v>
+            <v>-0.123061</v>
           </cell>
         </row>
         <row r="190">
           <cell r="A190">
-            <v>51.525141470000001</v>
+            <v>51.5306</v>
           </cell>
           <cell r="B190">
-            <v>-0.13770140559999999</v>
+            <v>-0.12274</v>
           </cell>
         </row>
         <row r="191">
           <cell r="A191">
-            <v>51.525562739999998</v>
+            <v>51.530700000000003</v>
           </cell>
           <cell r="B191">
-            <v>-0.13603358970000001</v>
+            <v>-0.122472</v>
           </cell>
         </row>
         <row r="192">
           <cell r="A192">
-            <v>51.525790600000001</v>
+            <v>51.530700000000003</v>
           </cell>
           <cell r="B192">
-            <v>-0.13494283609999999</v>
+            <v>-0.122472</v>
           </cell>
         </row>
         <row r="193">
           <cell r="A193">
-            <v>51.527188959999997</v>
+            <v>51.530900000000003</v>
           </cell>
           <cell r="B193">
-            <v>-0.13130907659999999</v>
+            <v>-0.120487</v>
           </cell>
         </row>
         <row r="194">
           <cell r="A194">
-            <v>51.526043280000003</v>
+            <v>51.530900000000003</v>
           </cell>
           <cell r="B194">
-            <v>-0.13410749890000001</v>
+            <v>-0.11967800000000001</v>
           </cell>
         </row>
         <row r="195">
           <cell r="A195">
-            <v>51.524659020000001</v>
+            <v>51.530900000000003</v>
           </cell>
           <cell r="B195">
-            <v>-0.12767314909999999</v>
+            <v>-0.119438</v>
           </cell>
         </row>
         <row r="196">
           <cell r="A196">
-            <v>51.526116049999999</v>
+            <v>51.530799999999999</v>
           </cell>
           <cell r="B196">
-            <v>-0.1339321872</v>
+            <v>-0.1192</v>
           </cell>
         </row>
         <row r="197">
           <cell r="A197">
-            <v>51.52621491</v>
+            <v>51.530200000000001</v>
           </cell>
           <cell r="B197">
-            <v>-0.13394297560000001</v>
+            <v>-0.116815</v>
           </cell>
         </row>
         <row r="198">
           <cell r="A198">
-            <v>51.526335410000002</v>
+            <v>51.530099999999997</v>
           </cell>
           <cell r="B198">
-            <v>-0.13381189299999999</v>
+            <v>-0.116354</v>
           </cell>
         </row>
         <row r="199">
           <cell r="A199">
-            <v>51.526744180000001</v>
+            <v>51.530099999999997</v>
           </cell>
           <cell r="B199">
-            <v>-0.13267720320000001</v>
+            <v>-0.116273</v>
           </cell>
         </row>
         <row r="200">
           <cell r="A200">
-            <v>51.527188959999997</v>
+            <v>51.530099999999997</v>
           </cell>
           <cell r="B200">
-            <v>-0.13130907659999999</v>
+            <v>-0.116273</v>
           </cell>
         </row>
         <row r="201">
           <cell r="A201">
-            <v>51.527581900000001</v>
+            <v>51.53</v>
           </cell>
           <cell r="B201">
-            <v>-0.1302148756</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="A202">
-            <v>51.527722509999997</v>
-          </cell>
-          <cell r="B202">
-            <v>-0.12986486059999999</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="A203">
-            <v>51.528048120000001</v>
-          </cell>
-          <cell r="B203">
-            <v>-0.12887806409999999</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="A204">
-            <v>51.528130160000003</v>
-          </cell>
-          <cell r="B204">
-            <v>-0.12861910779999999</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="A205">
-            <v>51.528218680000002</v>
-          </cell>
-          <cell r="B205">
-            <v>-0.12826972389999999</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="A206">
-            <v>51.528376680000001</v>
-          </cell>
-          <cell r="B206">
-            <v>-0.12758298130000001</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="A207">
-            <v>51.528505160000002</v>
-          </cell>
-          <cell r="B207">
-            <v>-0.12734465070000001</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="A208">
-            <v>51.528778549999998</v>
-          </cell>
-          <cell r="B208">
-            <v>-0.12695981009999999</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="A209">
-            <v>51.528949580000003</v>
-          </cell>
-          <cell r="B209">
-            <v>-0.1266085753</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="A210">
-            <v>51.528949580000003</v>
-          </cell>
-          <cell r="B210">
-            <v>-0.1266085753</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="A211">
-            <v>51.529901250000002</v>
-          </cell>
-          <cell r="B211">
-            <v>-0.1244298735</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="A212">
-            <v>51.530262759999999</v>
-          </cell>
-          <cell r="B212">
-            <v>-0.1236149695</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="A213">
-            <v>51.530476450000002</v>
-          </cell>
-          <cell r="B213">
-            <v>-0.12306053679999999</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="A214">
-            <v>51.530585549999998</v>
-          </cell>
-          <cell r="B214">
-            <v>-0.12274012419999999</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="A215">
-            <v>51.5306736</v>
-          </cell>
-          <cell r="B215">
-            <v>-0.122472383</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="A216">
-            <v>51.5306736</v>
-          </cell>
-          <cell r="B216">
-            <v>-0.122472383</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="A217">
-            <v>51.530874390000001</v>
-          </cell>
-          <cell r="B217">
-            <v>-0.120487342</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="A218">
-            <v>51.530899460000001</v>
-          </cell>
-          <cell r="B218">
-            <v>-0.1196780087</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="A219">
-            <v>51.53087171</v>
-          </cell>
-          <cell r="B219">
-            <v>-0.1194381072</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="A220">
-            <v>51.530822149999999</v>
-          </cell>
-          <cell r="B220">
-            <v>-0.11919979579999999</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="A221">
-            <v>51.530230979999999</v>
-          </cell>
-          <cell r="B221">
-            <v>-0.1168152405</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="A222">
-            <v>51.530106580000002</v>
-          </cell>
-          <cell r="B222">
-            <v>-0.11635410190000001</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="A223">
-            <v>51.530077249999998</v>
-          </cell>
-          <cell r="B223">
-            <v>-0.1162734185</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="A224">
-            <v>51.530077249999998</v>
-          </cell>
-          <cell r="B224">
-            <v>-0.1162734185</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="A225">
-            <v>51.53001063</v>
-          </cell>
-          <cell r="B225">
-            <v>-0.1160725454</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="A226">
-            <v>51.529962339999997</v>
-          </cell>
-          <cell r="B226">
-            <v>-0.11598191839999999</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="A227">
-            <v>51.529758579999999</v>
-          </cell>
-          <cell r="B227">
-            <v>-0.1155612114</v>
+            <v>-0.116073</v>
           </cell>
         </row>
       </sheetData>
@@ -5552,11 +7990,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
